--- a/template/b2c/template_b2c_t2.xlsx
+++ b/template/b2c/template_b2c_t2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SV_5</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>ShowAnswersText=true@;SplitSamplesBy=z@;groupfile1=template\b2c\mgtsSV5group.xlsx@;secondvar=SV_6@;ExcludeList=12,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MainHeader=A01 </t>
-  </si>
-  <si>
-    <t>groupfile3=template\b2c\A01.xlsx</t>
   </si>
 </sst>
 </file>
@@ -395,19 +389,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="61.5" customHeight="1">
@@ -433,40 +427,21 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="E5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="E7" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/b2c/template_b2c_t2.xlsx
+++ b/template/b2c/template_b2c_t2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SV_5</t>
   </si>
@@ -30,13 +30,16 @@
     <t>All</t>
   </si>
   <si>
-    <t>OlgaLinear</t>
-  </si>
-  <si>
-    <t>thirdvar=A02</t>
-  </si>
-  <si>
     <t>ShowAnswersText=true@;SplitSamplesBy=z@;groupfile1=template\b2c\mgtsSV5group.xlsx@;secondvar=SV_6@;ExcludeList=12,13</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>thirdvar=A1</t>
+  </si>
+  <si>
+    <t>groupfile3=template\b2c\nps_b2c.xlsx</t>
   </si>
 </sst>
 </file>
@@ -88,13 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -392,16 +392,16 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="72.375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="61.5" customHeight="1">
@@ -409,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -421,18 +421,20 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="E5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9">

--- a/template/b2c/template_b2c_t2.xlsx
+++ b/template/b2c/template_b2c_t2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>SV_5</t>
   </si>
@@ -30,16 +30,19 @@
     <t>All</t>
   </si>
   <si>
+    <t>OlgaLinear</t>
+  </si>
+  <si>
+    <t>thirdvar=A02</t>
+  </si>
+  <si>
     <t>ShowAnswersText=true@;SplitSamplesBy=z@;groupfile1=template\b2c\mgtsSV5group.xlsx@;secondvar=SV_6@;ExcludeList=12,13</t>
   </si>
   <si>
-    <t>Olga</t>
-  </si>
-  <si>
-    <t>thirdvar=A1</t>
-  </si>
-  <si>
-    <t>groupfile3=template\b2c\nps_b2c.xlsx</t>
+    <t xml:space="preserve">MainHeader=A01 </t>
+  </si>
+  <si>
+    <t>groupfile3=template\b2c\A01.xlsx</t>
   </si>
 </sst>
 </file>
@@ -91,10 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -409,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -421,29 +427,46 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9">
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:9">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
